--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.11884961718826</v>
+        <v>1.23169662349657</v>
       </c>
       <c r="B2" t="n">
-        <v>10.292719208282</v>
+        <v>4.99916478610402</v>
       </c>
       <c r="C2" t="n">
-        <v>53.3790821220818</v>
+        <v>29.5846568143172</v>
       </c>
       <c r="D2" t="n">
-        <v>81.5552669511065</v>
+        <v>47.8679394048989</v>
       </c>
       <c r="E2" t="n">
-        <v>35.9337429221106</v>
+        <v>21.6360822935188</v>
       </c>
       <c r="F2" t="n">
-        <v>26.887702868166</v>
+        <v>16.3992514236759</v>
       </c>
       <c r="G2" t="n">
-        <v>23.0020880185467</v>
+        <v>14.131327478215</v>
       </c>
       <c r="H2" t="n">
-        <v>20.8351124041821</v>
+        <v>12.8569816001395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.04720176619105</v>
+        <v>2.255819854074</v>
       </c>
       <c r="B3" t="n">
-        <v>13.2079205234295</v>
+        <v>8.18542593703621</v>
       </c>
       <c r="C3" t="n">
-        <v>68.150621264597</v>
+        <v>45.6207468397772</v>
       </c>
       <c r="D3" t="n">
-        <v>103.573740666885</v>
+        <v>71.7639344492765</v>
       </c>
       <c r="E3" t="n">
-        <v>45.4415239371904</v>
+        <v>31.9627435576652</v>
       </c>
       <c r="F3" t="n">
-        <v>33.9015914985308</v>
+        <v>24.0223597980716</v>
       </c>
       <c r="G3" t="n">
-        <v>28.9431578214089</v>
+        <v>20.591610813301</v>
       </c>
       <c r="H3" t="n">
-        <v>26.1781833431293</v>
+        <v>18.6690953003684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.43113895941393</v>
+        <v>4.05375879859745</v>
       </c>
       <c r="B4" t="n">
-        <v>17.3470518291803</v>
+        <v>13.4700395343017</v>
       </c>
       <c r="C4" t="n">
-        <v>89.2989908056577</v>
+        <v>72.0275737307342</v>
       </c>
       <c r="D4" t="n">
-        <v>135.348778349637</v>
+        <v>111.087969767116</v>
       </c>
       <c r="E4" t="n">
-        <v>59.2223661181065</v>
+        <v>48.9661283725221</v>
       </c>
       <c r="F4" t="n">
-        <v>44.095492123257</v>
+        <v>36.5857048774177</v>
       </c>
       <c r="G4" t="n">
-        <v>37.5942822677033</v>
+        <v>31.2486093957338</v>
       </c>
       <c r="H4" t="n">
-        <v>33.9697932874927</v>
+        <v>28.2654270205047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.97027712167589</v>
+        <v>1.69615643721045</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4206249181295</v>
+        <v>5.66111584104559</v>
       </c>
       <c r="C5" t="n">
-        <v>65.3271027936015</v>
+        <v>34.9960306138533</v>
       </c>
       <c r="D5" t="n">
-        <v>100.310232780164</v>
+        <v>57.5818432338541</v>
       </c>
       <c r="E5" t="n">
-        <v>44.2078106303261</v>
+        <v>26.1309417609567</v>
       </c>
       <c r="F5" t="n">
-        <v>33.0501280163037</v>
+        <v>19.8124345764704</v>
       </c>
       <c r="G5" t="n">
-        <v>28.2470516785657</v>
+        <v>17.0615328391841</v>
       </c>
       <c r="H5" t="n">
-        <v>25.5654057779107</v>
+        <v>15.5106259171394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.51436325403676</v>
+        <v>2.62471489200204</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8291142810738</v>
+        <v>8.22430036586879</v>
       </c>
       <c r="C6" t="n">
-        <v>72.4459814361941</v>
+        <v>47.3933783944915</v>
       </c>
       <c r="D6" t="n">
-        <v>110.818299836758</v>
+        <v>75.6371473558296</v>
       </c>
       <c r="E6" t="n">
-        <v>48.6976881950436</v>
+        <v>33.8336868051313</v>
       </c>
       <c r="F6" t="n">
-        <v>36.3435333116662</v>
+        <v>25.4635808082145</v>
       </c>
       <c r="G6" t="n">
-        <v>31.030089139318</v>
+        <v>21.8381948301895</v>
       </c>
       <c r="H6" t="n">
-        <v>28.0662740619873</v>
+        <v>19.8040186749614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.55288976851409</v>
+        <v>4.98953673754759</v>
       </c>
       <c r="B7" t="n">
-        <v>19.3544694021528</v>
+        <v>14.7077788795983</v>
       </c>
       <c r="C7" t="n">
-        <v>101.708215195929</v>
+        <v>81.1107283280691</v>
       </c>
       <c r="D7" t="n">
-        <v>155.852296965217</v>
+        <v>127.057477310701</v>
       </c>
       <c r="E7" t="n">
-        <v>68.5031065350012</v>
+        <v>56.3545095605411</v>
       </c>
       <c r="F7" t="n">
-        <v>51.1234964389461</v>
+        <v>42.2346618023728</v>
       </c>
       <c r="G7" t="n">
-        <v>43.6462567869309</v>
+        <v>36.1374256806959</v>
       </c>
       <c r="H7" t="n">
-        <v>39.4738606116409</v>
+        <v>32.7246938771333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.90935930165627</v>
+        <v>0.562005538295057</v>
       </c>
       <c r="B8" t="n">
-        <v>7.33689506743731</v>
+        <v>4.1322074624985</v>
       </c>
       <c r="C8" t="n">
-        <v>36.6897511784388</v>
+        <v>22.203677401776</v>
       </c>
       <c r="D8" t="n">
-        <v>55.3107148266615</v>
+        <v>34.4789522058207</v>
       </c>
       <c r="E8" t="n">
-        <v>24.3561417591684</v>
+        <v>15.4268317570898</v>
       </c>
       <c r="F8" t="n">
-        <v>18.2687341378898</v>
+        <v>11.6833522157983</v>
       </c>
       <c r="G8" t="n">
-        <v>15.6696738779788</v>
+        <v>10.0840933616238</v>
       </c>
       <c r="H8" t="n">
-        <v>14.2247182806472</v>
+        <v>9.1932769204679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.30293548428623</v>
+        <v>1.10953816404015</v>
       </c>
       <c r="B9" t="n">
-        <v>8.98619004456256</v>
+        <v>6.13752747023906</v>
       </c>
       <c r="C9" t="n">
-        <v>44.6211227719987</v>
+        <v>31.696556772933</v>
       </c>
       <c r="D9" t="n">
-        <v>66.6647819400627</v>
+        <v>48.1073506013534</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1246203295635</v>
+        <v>21.1908720673727</v>
       </c>
       <c r="F9" t="n">
-        <v>21.7087223797325</v>
+        <v>15.8699552927552</v>
       </c>
       <c r="G9" t="n">
-        <v>18.5305603877033</v>
+        <v>13.5854591627757</v>
       </c>
       <c r="H9" t="n">
-        <v>16.7596894318308</v>
+        <v>12.3094406839651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.46204576270744</v>
+        <v>1.71860351668916</v>
       </c>
       <c r="B10" t="n">
-        <v>9.79608729524813</v>
+        <v>8.00416003508549</v>
       </c>
       <c r="C10" t="n">
-        <v>47.9166797357597</v>
+        <v>39.8078722380959</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5702077855505</v>
+        <v>59.0110490964199</v>
       </c>
       <c r="E10" t="n">
-        <v>30.5032262216364</v>
+        <v>25.5867251453129</v>
       </c>
       <c r="F10" t="n">
-        <v>22.5690557182227</v>
+        <v>18.961030369519</v>
       </c>
       <c r="G10" t="n">
-        <v>19.1685300448897</v>
+        <v>16.1171668921882</v>
       </c>
       <c r="H10" t="n">
-        <v>17.2771894446525</v>
+        <v>14.5331901123481</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-9.40475665452497</v>
+        <v>-3.71412810426828</v>
       </c>
       <c r="B2" t="n">
-        <v>-31.0372513422164</v>
+        <v>-15.0747660387566</v>
       </c>
       <c r="C2" t="n">
-        <v>-160.962322464482</v>
+        <v>-89.2112580590296</v>
       </c>
       <c r="D2" t="n">
-        <v>-245.926393931574</v>
+        <v>-144.343709031562</v>
       </c>
       <c r="E2" t="n">
-        <v>-108.356653686105</v>
+        <v>-65.2426740316086</v>
       </c>
       <c r="F2" t="n">
-        <v>-81.0787096244309</v>
+        <v>-49.4512361564544</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.3618054452473</v>
+        <v>-42.6124092054908</v>
       </c>
       <c r="H2" t="n">
-        <v>-62.8273838376541</v>
+        <v>-38.7696741114525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.24520222172908</v>
+        <v>-4.03831386788982</v>
       </c>
       <c r="B3" t="n">
-        <v>-23.6444982605433</v>
+        <v>-14.653350539681</v>
       </c>
       <c r="C3" t="n">
-        <v>-122.001585570361</v>
+        <v>-81.6691520352758</v>
       </c>
       <c r="D3" t="n">
-        <v>-185.415192852799</v>
+        <v>-128.47005100051</v>
       </c>
       <c r="E3" t="n">
-        <v>-81.3483115516473</v>
+        <v>-57.2189265608314</v>
       </c>
       <c r="F3" t="n">
-        <v>-60.6898050147055</v>
+        <v>-43.0042445706789</v>
       </c>
       <c r="G3" t="n">
-        <v>-51.8133375764168</v>
+        <v>-36.862601133404</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.863547476896</v>
+        <v>-33.4209605950038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-8.50305335292023</v>
+        <v>-6.34661119922135</v>
       </c>
       <c r="B4" t="n">
-        <v>-27.1587430043052</v>
+        <v>-21.0888481554284</v>
       </c>
       <c r="C4" t="n">
-        <v>-139.807522668206</v>
+        <v>-112.767194301344</v>
       </c>
       <c r="D4" t="n">
-        <v>-211.903597414809</v>
+        <v>-173.920597660294</v>
       </c>
       <c r="E4" t="n">
-        <v>-92.7192146162238</v>
+        <v>-76.6619313460588</v>
       </c>
       <c r="F4" t="n">
-        <v>-69.0364074550925</v>
+        <v>-57.2789985400126</v>
       </c>
       <c r="G4" t="n">
-        <v>-58.8580388525942</v>
+        <v>-48.9231807328239</v>
       </c>
       <c r="H4" t="n">
-        <v>-53.1834973970894</v>
+        <v>-44.252676242399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.94560068615264</v>
+        <v>-2.54004155575011</v>
       </c>
       <c r="B5" t="n">
-        <v>-18.6002321179292</v>
+        <v>-8.47767881117138</v>
       </c>
       <c r="C5" t="n">
-        <v>-97.8291578372368</v>
+        <v>-52.4075315786813</v>
       </c>
       <c r="D5" t="n">
-        <v>-150.217370366864</v>
+        <v>-86.2304156986966</v>
       </c>
       <c r="E5" t="n">
-        <v>-66.2024289896481</v>
+        <v>-39.1318138513661</v>
       </c>
       <c r="F5" t="n">
-        <v>-49.4934881845785</v>
+        <v>-29.6696731744745</v>
       </c>
       <c r="G5" t="n">
-        <v>-42.3007474528574</v>
+        <v>-25.5501211242025</v>
       </c>
       <c r="H5" t="n">
-        <v>-38.2849079488827</v>
+        <v>-23.2275947671567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-9.13237640051059</v>
+        <v>-5.30969330311516</v>
       </c>
       <c r="B6" t="n">
-        <v>-27.9757453695184</v>
+        <v>-16.637430872407</v>
       </c>
       <c r="C6" t="n">
-        <v>-146.555324405523</v>
+        <v>-95.874909934042</v>
       </c>
       <c r="D6" t="n">
-        <v>-224.180990590191</v>
+        <v>-153.010925493568</v>
       </c>
       <c r="E6" t="n">
-        <v>-98.5134765205624</v>
+        <v>-68.4441958996443</v>
       </c>
       <c r="F6" t="n">
-        <v>-73.5215150508419</v>
+        <v>-51.5118060642311</v>
       </c>
       <c r="G6" t="n">
-        <v>-62.7726298959769</v>
+        <v>-44.1777951560809</v>
       </c>
       <c r="H6" t="n">
-        <v>-56.776950473527</v>
+        <v>-40.0627381105775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.28923129240036</v>
+        <v>-4.02735507220385</v>
       </c>
       <c r="B7" t="n">
-        <v>-15.622155846654</v>
+        <v>-11.8715325665117</v>
       </c>
       <c r="C7" t="n">
-        <v>-82.0948151902884</v>
+        <v>-65.4693452167575</v>
       </c>
       <c r="D7" t="n">
-        <v>-125.797758732606</v>
+        <v>-102.555728642693</v>
       </c>
       <c r="E7" t="n">
-        <v>-55.2929756963887</v>
+        <v>-45.4871127037253</v>
       </c>
       <c r="F7" t="n">
-        <v>-41.2648475243782</v>
+        <v>-34.0901346917837</v>
       </c>
       <c r="G7" t="n">
-        <v>-35.2295178690186</v>
+        <v>-29.1686888516776</v>
       </c>
       <c r="H7" t="n">
-        <v>-31.8617260711658</v>
+        <v>-26.4140678393259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.892126757029</v>
+        <v>4.08904294198306</v>
       </c>
       <c r="B8" t="n">
-        <v>53.3818209026691</v>
+        <v>30.0651374550482</v>
       </c>
       <c r="C8" t="n">
-        <v>266.947490507727</v>
+        <v>161.549636399018</v>
       </c>
       <c r="D8" t="n">
-        <v>402.429998757874</v>
+        <v>250.862147358704</v>
       </c>
       <c r="E8" t="n">
-        <v>177.210548238368</v>
+        <v>112.242626122254</v>
       </c>
       <c r="F8" t="n">
-        <v>132.919754869541</v>
+        <v>85.0057973834961</v>
       </c>
       <c r="G8" t="n">
-        <v>114.00949814179</v>
+        <v>73.3699011432123</v>
       </c>
       <c r="H8" t="n">
-        <v>103.496282374072</v>
+        <v>66.8884940518133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.27868515676021</v>
+        <v>3.02502647119403</v>
       </c>
       <c r="B9" t="n">
-        <v>24.4997996833196</v>
+        <v>16.7332532281258</v>
       </c>
       <c r="C9" t="n">
-        <v>121.654289986919</v>
+        <v>86.416967339536</v>
       </c>
       <c r="D9" t="n">
-        <v>181.753757194574</v>
+        <v>131.159083792308</v>
       </c>
       <c r="E9" t="n">
-        <v>79.4048824238702</v>
+        <v>57.7744425825526</v>
       </c>
       <c r="F9" t="n">
-        <v>59.1863010960988</v>
+        <v>43.2675832280004</v>
       </c>
       <c r="G9" t="n">
-        <v>50.5214128865542</v>
+        <v>37.0391708213784</v>
       </c>
       <c r="H9" t="n">
-        <v>45.6933396465344</v>
+        <v>33.5602551777026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.20929467000682</v>
+        <v>1.54217344242253</v>
       </c>
       <c r="B10" t="n">
-        <v>8.79043102127949</v>
+        <v>7.18246117568094</v>
       </c>
       <c r="C10" t="n">
-        <v>42.9976025418082</v>
+        <v>35.7212369047213</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3255426375342</v>
+        <v>52.9530353233012</v>
       </c>
       <c r="E10" t="n">
-        <v>27.371796304617</v>
+        <v>22.9600181859765</v>
       </c>
       <c r="F10" t="n">
-        <v>20.2521396070741</v>
+        <v>17.0145104399481</v>
       </c>
       <c r="G10" t="n">
-        <v>17.2007084114758</v>
+        <v>14.4625950702741</v>
       </c>
       <c r="H10" t="n">
-        <v>15.5035308973274</v>
+        <v>13.0412277219811</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.25567772110904</v>
+        <v>3.26033365562943</v>
       </c>
       <c r="B2" t="n">
-        <v>27.2451009465635</v>
+        <v>13.2329218829087</v>
       </c>
       <c r="C2" t="n">
-        <v>141.295847231586</v>
+        <v>78.3113718605024</v>
       </c>
       <c r="D2" t="n">
-        <v>215.878956361592</v>
+        <v>126.707706175552</v>
       </c>
       <c r="E2" t="n">
-        <v>95.1175713132248</v>
+        <v>57.2712841229315</v>
       </c>
       <c r="F2" t="n">
-        <v>71.1724631791116</v>
+        <v>43.4092538079353</v>
       </c>
       <c r="G2" t="n">
-        <v>60.8871375353147</v>
+        <v>37.4059989262233</v>
       </c>
       <c r="H2" t="n">
-        <v>55.1510955655116</v>
+        <v>34.0327715616734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.15139118807254</v>
+        <v>4.54340335438316</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6018185371495</v>
+        <v>16.4861088496144</v>
       </c>
       <c r="C3" t="n">
-        <v>137.260854716597</v>
+        <v>91.8838682295371</v>
       </c>
       <c r="D3" t="n">
-        <v>208.605877779679</v>
+        <v>144.53835926292</v>
       </c>
       <c r="E3" t="n">
-        <v>91.5228988306177</v>
+        <v>64.3755466700584</v>
       </c>
       <c r="F3" t="n">
-        <v>68.2805429942367</v>
+        <v>48.382972554145</v>
       </c>
       <c r="G3" t="n">
-        <v>58.2938571512</v>
+        <v>41.4731670493735</v>
       </c>
       <c r="H3" t="n">
-        <v>52.7249752669876</v>
+        <v>37.601065553974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.93029193374592</v>
+        <v>5.91910664449983</v>
       </c>
       <c r="B4" t="n">
-        <v>25.3293436649733</v>
+        <v>19.6683138959196</v>
       </c>
       <c r="C4" t="n">
-        <v>130.390157896858</v>
+        <v>105.1712525186</v>
       </c>
       <c r="D4" t="n">
-        <v>197.62987712329</v>
+        <v>162.205393226661</v>
       </c>
       <c r="E4" t="n">
-        <v>86.4736947136494</v>
+        <v>71.4980220099693</v>
       </c>
       <c r="F4" t="n">
-        <v>64.3861495927101</v>
+        <v>53.4207138590875</v>
       </c>
       <c r="G4" t="n">
-        <v>54.8933908063191</v>
+        <v>45.627739758385</v>
       </c>
       <c r="H4" t="n">
-        <v>49.601083623883</v>
+        <v>41.2718381134518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.68472240421557</v>
+        <v>3.71023164374938</v>
       </c>
       <c r="B5" t="n">
-        <v>27.1693073795576</v>
+        <v>12.3833218868196</v>
       </c>
       <c r="C5" t="n">
-        <v>142.898779064218</v>
+        <v>76.5515357785539</v>
       </c>
       <c r="D5" t="n">
-        <v>219.422095561491</v>
+        <v>125.956528646039</v>
       </c>
       <c r="E5" t="n">
-        <v>96.701704101816</v>
+        <v>57.1597317768184</v>
       </c>
       <c r="F5" t="n">
-        <v>72.2950006885734</v>
+        <v>43.3384091777698</v>
       </c>
       <c r="G5" t="n">
-        <v>61.7885842845962</v>
+        <v>37.320990942863</v>
       </c>
       <c r="H5" t="n">
-        <v>55.922658677932</v>
+        <v>33.9284831455611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.65743940645202</v>
+        <v>5.03355819149039</v>
       </c>
       <c r="B6" t="n">
-        <v>26.5208429619036</v>
+        <v>15.7721871438462</v>
       </c>
       <c r="C6" t="n">
-        <v>138.933590238658</v>
+        <v>90.8888537825277</v>
       </c>
       <c r="D6" t="n">
-        <v>212.522267698521</v>
+        <v>145.0534623071</v>
       </c>
       <c r="E6" t="n">
-        <v>93.3901994718504</v>
+        <v>64.8846973380743</v>
       </c>
       <c r="F6" t="n">
-        <v>69.6979661928549</v>
+        <v>48.8328908227057</v>
       </c>
       <c r="G6" t="n">
-        <v>59.5080859432901</v>
+        <v>41.8802913831975</v>
       </c>
       <c r="H6" t="n">
-        <v>53.8242169234511</v>
+        <v>37.9792413757156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.18433418626306</v>
+        <v>6.23175996198484</v>
       </c>
       <c r="B7" t="n">
-        <v>24.1730673307114</v>
+        <v>18.3695105122437</v>
       </c>
       <c r="C7" t="n">
-        <v>127.030066437482</v>
+        <v>101.30451299788</v>
       </c>
       <c r="D7" t="n">
-        <v>194.654164364081</v>
+        <v>158.690423905927</v>
       </c>
       <c r="E7" t="n">
-        <v>85.5580265325845</v>
+        <v>70.3848462952262</v>
       </c>
       <c r="F7" t="n">
-        <v>63.8514906258589</v>
+        <v>52.7496415543702</v>
       </c>
       <c r="G7" t="n">
-        <v>54.5126751925655</v>
+        <v>45.1344031183247</v>
       </c>
       <c r="H7" t="n">
-        <v>49.301495718719</v>
+        <v>40.8720183453272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.04739073825369</v>
+        <v>2.07434641661849</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0802704870397</v>
+        <v>15.2518599168284</v>
       </c>
       <c r="C8" t="n">
-        <v>135.420825414823</v>
+        <v>81.9531401662915</v>
       </c>
       <c r="D8" t="n">
-        <v>204.150271275541</v>
+        <v>127.260829446409</v>
       </c>
       <c r="E8" t="n">
-        <v>89.8978247332822</v>
+        <v>56.9399961291752</v>
       </c>
       <c r="F8" t="n">
-        <v>67.4293767816789</v>
+        <v>43.1229198851938</v>
       </c>
       <c r="G8" t="n">
-        <v>57.8363194728889</v>
+        <v>37.2201010562793</v>
       </c>
       <c r="H8" t="n">
-        <v>52.5030295651226</v>
+        <v>33.932122973034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.57859368060992</v>
+        <v>3.16952029449161</v>
       </c>
       <c r="B9" t="n">
-        <v>25.6700604264828</v>
+        <v>17.5325360635531</v>
       </c>
       <c r="C9" t="n">
-        <v>127.465245245709</v>
+        <v>90.5447718819351</v>
       </c>
       <c r="D9" t="n">
-        <v>190.435431727286</v>
+        <v>137.424046316712</v>
       </c>
       <c r="E9" t="n">
-        <v>83.1977467704066</v>
+        <v>60.5341044159728</v>
       </c>
       <c r="F9" t="n">
-        <v>62.0134019541094</v>
+        <v>45.3343084566866</v>
       </c>
       <c r="G9" t="n">
-        <v>52.9346255231672</v>
+        <v>38.8083888611931</v>
       </c>
       <c r="H9" t="n">
-        <v>47.8759338841832</v>
+        <v>35.1632988626574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.75320457780595</v>
+        <v>4.01596012934241</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8910831493367</v>
+        <v>18.7037831923586</v>
       </c>
       <c r="C10" t="n">
-        <v>111.969673912918</v>
+        <v>93.0213549487715</v>
       </c>
       <c r="D10" t="n">
-        <v>164.905481708867</v>
+        <v>137.89452777243</v>
       </c>
       <c r="E10" t="n">
-        <v>71.2786510284789</v>
+        <v>59.7899789137953</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7384164184058</v>
+        <v>44.3073351333141</v>
       </c>
       <c r="G10" t="n">
-        <v>44.7922116129953</v>
+        <v>37.6619150423233</v>
       </c>
       <c r="H10" t="n">
-        <v>40.3726067606839</v>
+        <v>33.9605449870026</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-15.4528377642398</v>
+        <v>-6.10263732908463</v>
       </c>
       <c r="B2" t="n">
-        <v>-50.9969186080369</v>
+        <v>-24.769159106174</v>
       </c>
       <c r="C2" t="n">
-        <v>-264.475174272814</v>
+        <v>-146.581899794997</v>
       </c>
       <c r="D2" t="n">
-        <v>-404.078575019875</v>
+        <v>-237.169338866432</v>
       </c>
       <c r="E2" t="n">
-        <v>-178.039459349718</v>
+        <v>-107.199419841507</v>
       </c>
       <c r="F2" t="n">
-        <v>-133.219411408951</v>
+        <v>-81.2527062249007</v>
       </c>
       <c r="G2" t="n">
-        <v>-113.967513031235</v>
+        <v>-70.0159153909662</v>
       </c>
       <c r="H2" t="n">
-        <v>-103.230886801071</v>
+        <v>-63.7019655291636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-12.3258031114842</v>
+        <v>-6.87012730834548</v>
       </c>
       <c r="B3" t="n">
-        <v>-40.2248855601627</v>
+        <v>-24.928816083834</v>
       </c>
       <c r="C3" t="n">
-        <v>-207.553561240737</v>
+        <v>-138.938549603167</v>
       </c>
       <c r="D3" t="n">
-        <v>-315.435110165368</v>
+        <v>-218.557951302665</v>
       </c>
       <c r="E3" t="n">
-        <v>-138.392724033311</v>
+        <v>-97.3429314262771</v>
       </c>
       <c r="F3" t="n">
-        <v>-103.247716846626</v>
+        <v>-73.1603943291735</v>
       </c>
       <c r="G3" t="n">
-        <v>-88.1467456630035</v>
+        <v>-62.7120057994847</v>
       </c>
       <c r="H3" t="n">
-        <v>-79.7259816397591</v>
+        <v>-56.8569609907147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-10.0812614572084</v>
+        <v>-7.52457313990905</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.1995379438022</v>
+        <v>-25.0030410562137</v>
       </c>
       <c r="C4" t="n">
-        <v>-165.756479608437</v>
+        <v>-133.697334635356</v>
       </c>
       <c r="D4" t="n">
-        <v>-251.233936869048</v>
+        <v>-206.201107418103</v>
       </c>
       <c r="E4" t="n">
-        <v>-109.928352305605</v>
+        <v>-90.8907590764151</v>
       </c>
       <c r="F4" t="n">
-        <v>-81.8499008220542</v>
+        <v>-67.910259564655</v>
       </c>
       <c r="G4" t="n">
-        <v>-69.7823774477141</v>
+        <v>-58.0035612873665</v>
       </c>
       <c r="H4" t="n">
-        <v>-63.0546134683119</v>
+        <v>-52.4661884224923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-9.63585016201815</v>
+        <v>-4.11656637041084</v>
       </c>
       <c r="B5" t="n">
-        <v>-30.1448178456635</v>
+        <v>-13.7395104478543</v>
       </c>
       <c r="C5" t="n">
-        <v>-158.548674247754</v>
+        <v>-84.935256891627</v>
       </c>
       <c r="D5" t="n">
-        <v>-243.452621357278</v>
+        <v>-139.750953510275</v>
       </c>
       <c r="E5" t="n">
-        <v>-107.292218192791</v>
+        <v>-63.4197139606005</v>
       </c>
       <c r="F5" t="n">
-        <v>-80.2125573708552</v>
+        <v>-48.0847167774203</v>
       </c>
       <c r="G5" t="n">
-        <v>-68.555506115037</v>
+        <v>-41.4082868611788</v>
       </c>
       <c r="H5" t="n">
-        <v>-62.0471598977848</v>
+        <v>-37.6442406099812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-8.11988100976657</v>
+        <v>-4.72101410726336</v>
       </c>
       <c r="B6" t="n">
-        <v>-24.8741087311422</v>
+        <v>-14.792859280812</v>
       </c>
       <c r="C6" t="n">
-        <v>-130.306915016561</v>
+        <v>-85.2453760494346</v>
       </c>
       <c r="D6" t="n">
-        <v>-199.326318628542</v>
+        <v>-136.046791515576</v>
       </c>
       <c r="E6" t="n">
-        <v>-87.5914079889081</v>
+        <v>-60.8558716965709</v>
       </c>
       <c r="F6" t="n">
-        <v>-65.3702746896438</v>
+        <v>-45.8007551918625</v>
       </c>
       <c r="G6" t="n">
-        <v>-55.8131052720243</v>
+        <v>-39.2798570940596</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.4821594866231</v>
+        <v>-35.6210313851213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.02901991066325</v>
+        <v>-5.35207432325853</v>
       </c>
       <c r="B7" t="n">
-        <v>-20.7607567949221</v>
+        <v>-15.776439744655</v>
       </c>
       <c r="C7" t="n">
-        <v>-109.098290211635</v>
+        <v>-87.004198838473</v>
       </c>
       <c r="D7" t="n">
-        <v>-167.17645759201</v>
+        <v>-136.289418770137</v>
       </c>
       <c r="E7" t="n">
-        <v>-73.4805126877626</v>
+        <v>-60.4492039008506</v>
       </c>
       <c r="F7" t="n">
-        <v>-54.8381076237085</v>
+        <v>-45.3034140991393</v>
       </c>
       <c r="G7" t="n">
-        <v>-46.8175749659871</v>
+        <v>-38.7631554326182</v>
       </c>
       <c r="H7" t="n">
-        <v>-42.3420142855365</v>
+        <v>-35.1024560092499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.3306086484407</v>
+        <v>3.3350793678035</v>
       </c>
       <c r="B8" t="n">
-        <v>43.5389434726584</v>
+        <v>24.5215374451117</v>
       </c>
       <c r="C8" t="n">
-        <v>217.726025505488</v>
+        <v>131.762093691594</v>
       </c>
       <c r="D8" t="n">
-        <v>328.227412840932</v>
+        <v>204.606599561204</v>
       </c>
       <c r="E8" t="n">
-        <v>144.535347652844</v>
+        <v>91.546621515026</v>
       </c>
       <c r="F8" t="n">
-        <v>108.41117061586</v>
+        <v>69.3318913544824</v>
       </c>
       <c r="G8" t="n">
-        <v>92.9877065076538</v>
+        <v>59.8414951841617</v>
       </c>
       <c r="H8" t="n">
-        <v>84.4129838907336</v>
+        <v>54.555170884917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.17626700673728</v>
+        <v>3.93926809728632</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9042759464884</v>
+        <v>21.7904772844354</v>
       </c>
       <c r="C9" t="n">
-        <v>158.42137845965</v>
+        <v>112.534421019628</v>
       </c>
       <c r="D9" t="n">
-        <v>236.684466762997</v>
+        <v>170.798768001658</v>
       </c>
       <c r="E9" t="n">
-        <v>103.403101784315</v>
+        <v>75.2353808044914</v>
       </c>
       <c r="F9" t="n">
-        <v>77.0739396578621</v>
+        <v>56.34417149066</v>
       </c>
       <c r="G9" t="n">
-        <v>65.7902970135919</v>
+        <v>48.2333709658423</v>
       </c>
       <c r="H9" t="n">
-        <v>59.5030545491434</v>
+        <v>43.7030365906613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.52238248949037</v>
+        <v>4.552876170467</v>
       </c>
       <c r="B10" t="n">
-        <v>25.9515193453526</v>
+        <v>21.2043959729288</v>
       </c>
       <c r="C10" t="n">
-        <v>126.939522244849</v>
+        <v>105.457897153019</v>
       </c>
       <c r="D10" t="n">
-        <v>186.952612543647</v>
+        <v>156.33041397642</v>
       </c>
       <c r="E10" t="n">
-        <v>80.8082902416</v>
+        <v>67.7836336671791</v>
       </c>
       <c r="F10" t="n">
-        <v>59.7893085703623</v>
+        <v>50.231029145798</v>
       </c>
       <c r="G10" t="n">
-        <v>50.7807314582864</v>
+        <v>42.6971458898482</v>
       </c>
       <c r="H10" t="n">
-        <v>45.7702450573011</v>
+        <v>38.5009190897308</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.18937408878535</v>
+        <v>2.44430867224269</v>
       </c>
       <c r="B2" t="n">
-        <v>20.4259574491176</v>
+        <v>9.9208698047376</v>
       </c>
       <c r="C2" t="n">
-        <v>105.931079827892</v>
+        <v>58.7109129286015</v>
       </c>
       <c r="D2" t="n">
-        <v>161.846872413882</v>
+        <v>94.9941870244221</v>
       </c>
       <c r="E2" t="n">
-        <v>71.3107089644459</v>
+        <v>42.9369234067336</v>
       </c>
       <c r="F2" t="n">
-        <v>53.3587931018031</v>
+        <v>32.5444039615743</v>
       </c>
       <c r="G2" t="n">
-        <v>45.6477692240585</v>
+        <v>28.0436965129009</v>
       </c>
       <c r="H2" t="n">
-        <v>41.3473942894474</v>
+        <v>25.5147501621558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.29946897930936</v>
+        <v>3.51118328529077</v>
       </c>
       <c r="B3" t="n">
-        <v>20.5581264353005</v>
+        <v>12.7406143186487</v>
       </c>
       <c r="C3" t="n">
-        <v>106.076432404068</v>
+        <v>71.0086860336026</v>
       </c>
       <c r="D3" t="n">
-        <v>161.212512766845</v>
+        <v>111.700553867338</v>
       </c>
       <c r="E3" t="n">
-        <v>70.7297256109572</v>
+        <v>49.7500058477755</v>
       </c>
       <c r="F3" t="n">
-        <v>52.7678223947808</v>
+        <v>37.3907996438191</v>
       </c>
       <c r="G3" t="n">
-        <v>45.0500210743912</v>
+        <v>32.0508393320061</v>
       </c>
       <c r="H3" t="n">
-        <v>40.7463386882035</v>
+        <v>29.0584442067791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.49586252183158</v>
+        <v>4.10206794932767</v>
       </c>
       <c r="B4" t="n">
-        <v>17.5537788159539</v>
+        <v>13.6305636805409</v>
       </c>
       <c r="C4" t="n">
-        <v>90.363178050439</v>
+        <v>72.8859353375703</v>
       </c>
       <c r="D4" t="n">
-        <v>136.961746673432</v>
+        <v>112.411818999994</v>
       </c>
       <c r="E4" t="n">
-        <v>59.9281264638848</v>
+        <v>49.5496638500256</v>
       </c>
       <c r="F4" t="n">
-        <v>44.6209836192588</v>
+        <v>37.0217012993326</v>
       </c>
       <c r="G4" t="n">
-        <v>38.0422980325518</v>
+        <v>31.6210029831201</v>
       </c>
       <c r="H4" t="n">
-        <v>34.3746155637385</v>
+        <v>28.6022696503277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.39050159347681</v>
+        <v>4.01175012178683</v>
       </c>
       <c r="B5" t="n">
-        <v>29.3772687676874</v>
+        <v>13.3896742461533</v>
       </c>
       <c r="C5" t="n">
-        <v>154.511698826099</v>
+        <v>82.7726305175481</v>
       </c>
       <c r="D5" t="n">
-        <v>237.253816773009</v>
+        <v>136.192606730332</v>
       </c>
       <c r="E5" t="n">
-        <v>104.560337589978</v>
+        <v>61.8049175725383</v>
       </c>
       <c r="F5" t="n">
-        <v>78.1701806423799</v>
+        <v>46.8603809656661</v>
       </c>
       <c r="G5" t="n">
-        <v>66.8099418930805</v>
+        <v>40.3539466902217</v>
       </c>
       <c r="H5" t="n">
-        <v>60.4673115598578</v>
+        <v>36.6857408001885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.62645140826631</v>
+        <v>5.01554132936955</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4259156057878</v>
+        <v>15.7157329795544</v>
       </c>
       <c r="C6" t="n">
-        <v>138.43629841366</v>
+        <v>90.5635308430434</v>
       </c>
       <c r="D6" t="n">
-        <v>211.761576305064</v>
+        <v>144.534265323353</v>
       </c>
       <c r="E6" t="n">
-        <v>93.0559233428555</v>
+        <v>64.6524523532704</v>
       </c>
       <c r="F6" t="n">
-        <v>69.4484928383753</v>
+        <v>48.6581008575471</v>
       </c>
       <c r="G6" t="n">
-        <v>59.2950857277909</v>
+        <v>41.7303871987764</v>
       </c>
       <c r="H6" t="n">
-        <v>53.6315612595688</v>
+        <v>37.843300411235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.56767513233997</v>
+        <v>5.76222009289159</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3517168712452</v>
+        <v>16.9854364121754</v>
       </c>
       <c r="C7" t="n">
-        <v>117.458824744956</v>
+        <v>93.6715958024575</v>
       </c>
       <c r="D7" t="n">
-        <v>179.987699126088</v>
+        <v>146.733692369142</v>
       </c>
       <c r="E7" t="n">
-        <v>79.1115483589947</v>
+        <v>65.0816106575873</v>
       </c>
       <c r="F7" t="n">
-        <v>59.040518968933</v>
+        <v>48.7751528158363</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4053484453896</v>
+        <v>41.7336941916236</v>
       </c>
       <c r="H7" t="n">
-        <v>45.5868119075512</v>
+        <v>37.7924642128652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.49339478900001</v>
+        <v>0.733911987837223</v>
       </c>
       <c r="B8" t="n">
-        <v>9.58110708273671</v>
+        <v>5.39616851847802</v>
       </c>
       <c r="C8" t="n">
-        <v>47.9124250310931</v>
+        <v>28.9953459687768</v>
       </c>
       <c r="D8" t="n">
-        <v>72.2291755171658</v>
+        <v>45.0253860997245</v>
       </c>
       <c r="E8" t="n">
-        <v>31.8062068725234</v>
+        <v>20.1455964210304</v>
       </c>
       <c r="F8" t="n">
-        <v>23.8567808905992</v>
+        <v>15.2570600555136</v>
       </c>
       <c r="G8" t="n">
-        <v>20.4627191743274</v>
+        <v>13.1686193467367</v>
       </c>
       <c r="H8" t="n">
-        <v>18.5757800562694</v>
+        <v>12.0053196626977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.71706891818957</v>
+        <v>1.30906474785289</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6021631216443</v>
+        <v>7.241229829367</v>
       </c>
       <c r="C9" t="n">
-        <v>52.6452723516461</v>
+        <v>37.396501034878</v>
       </c>
       <c r="D9" t="n">
-        <v>78.6530096840163</v>
+        <v>56.7584233024653</v>
       </c>
       <c r="E9" t="n">
-        <v>34.3620571186151</v>
+        <v>25.0015948064804</v>
       </c>
       <c r="F9" t="n">
-        <v>25.612569363774</v>
+        <v>18.7238255492718</v>
       </c>
       <c r="G9" t="n">
-        <v>21.8628832677302</v>
+        <v>16.0285119068162</v>
       </c>
       <c r="H9" t="n">
-        <v>19.7735592440408</v>
+        <v>14.5230289388962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.32935633939874</v>
+        <v>1.62598114834008</v>
       </c>
       <c r="B10" t="n">
-        <v>9.26813724916175</v>
+        <v>7.57278406506366</v>
       </c>
       <c r="C10" t="n">
-        <v>45.3342595804113</v>
+        <v>37.6624679200986</v>
       </c>
       <c r="D10" t="n">
-        <v>66.76689904301</v>
+        <v>55.8307093188055</v>
       </c>
       <c r="E10" t="n">
-        <v>28.8592862276239</v>
+        <v>24.2077549184735</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3527196804312</v>
+        <v>17.939145145784</v>
       </c>
       <c r="G10" t="n">
-        <v>18.1354618396363</v>
+        <v>15.2485487646588</v>
       </c>
       <c r="H10" t="n">
-        <v>16.3460530951457</v>
+        <v>13.7499387836959</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>3.58279225175434</v>
@@ -490,39 +502,45 @@
         <v>0.319393847399312</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00505291824197973</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00505291824197973</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.579166666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>3.44230275323912</v>
@@ -537,39 +555,45 @@
         <v>0.317875035495517</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00504475391927694</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00504475391927694</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.575</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>3.32432677310719</v>
@@ -584,39 +608,45 @@
         <v>0.317091368227732</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00502775748951875</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00502775748951875</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.575</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>3.38976872789097</v>
@@ -631,39 +661,45 @@
         <v>0.317177522349936</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00495762189575502</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00495762189575502</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>3.33509104849615</v>
@@ -678,39 +714,45 @@
         <v>0.316055143806997</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00493315073890756</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00493315073890756</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>3.24410060112677</v>
@@ -725,39 +767,45 @@
         <v>0.315873124771314</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00492560632131516</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00492560632131516</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>3.29370962174763</v>
@@ -772,39 +820,45 @@
         <v>0.33300234749619</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00459021231962261</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00459021231962261</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>3.24710554794127</v>
@@ -819,39 +873,45 @@
         <v>0.333874223515898</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00459021125695665</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00459021125695665</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>3.21897632788384</v>
@@ -866,39 +926,45 @@
         <v>0.334191344982169</v>
       </c>
       <c r="F10" t="n">
+        <v>0.0045919053343328</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0045919053343328</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>3.10510955014629</v>
@@ -913,33 +979,39 @@
         <v>0.329628510347761</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00446216694466109</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00446216694466109</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5375</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>-0.010234662948449</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000590751297318634</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000590751297318634</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>-0.0117534748522435</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000582586974615843</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000582586974615843</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>-0.0125371421200291</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000565590544857655</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000565590544857655</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>-0.0124509879978247</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000495454951093929</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000495454951093929</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>-0.0135733665407642</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000470983794246472</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000470983794246472</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>-0.0137553855764473</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000463439376654064</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000463439376654064</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>0.00337383714842865</v>
       </c>
       <c r="E8" t="n">
+        <v>0.00012804537496152</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00012804537496152</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.025</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0.00424571316813677</v>
       </c>
       <c r="E9" t="n">
+        <v>0.00012804431229556</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00012804431229556</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0.00456283463440815</v>
       </c>
       <c r="E10" t="n">
+        <v>0.000129738389671705</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000129738389671705</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>-0.0310490829135239</v>
       </c>
       <c r="E2" t="n">
+        <v>0.132391124008809</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.132391124008809</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0775193798449614</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>-0.0356567301773852</v>
       </c>
       <c r="E3" t="n">
+        <v>0.130561447350799</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.130561447350799</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0697674418604651</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>-0.0380341558040665</v>
       </c>
       <c r="E4" t="n">
+        <v>0.126752439313006</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.126752439313006</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0697674418604651</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>-0.0377727884784263</v>
       </c>
       <c r="E5" t="n">
+        <v>0.111034606557411</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.111034606557411</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>-0.0411777686537012</v>
       </c>
       <c r="E6" t="n">
+        <v>0.105550464625712</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.105550464625712</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>-0.0417299631088806</v>
       </c>
       <c r="E7" t="n">
+        <v>0.103859712646691</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.103859712646691</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.0102352710476082</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0286957831362012</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0286957831362012</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.012880297167431</v>
       </c>
       <c r="E9" t="n">
+        <v>0.028695544985999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.028695544985999</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.0138423543206087</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0290751985034837</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0290751985034837</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.44430867224269</v>
+        <v>1.43122353436101</v>
       </c>
       <c r="B2" t="n">
-        <v>9.9208698047376</v>
+        <v>5.80899724618013</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7109129286015</v>
+        <v>34.3771804524743</v>
       </c>
       <c r="D2" t="n">
-        <v>94.9941870244221</v>
+        <v>55.6222369297168</v>
       </c>
       <c r="E2" t="n">
-        <v>42.9369234067336</v>
+        <v>25.1409881127615</v>
       </c>
       <c r="F2" t="n">
-        <v>32.5444039615743</v>
+        <v>19.055824409779</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0436965129009</v>
+        <v>16.4205114090257</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5147501621558</v>
+        <v>14.939729715852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.51118328529077</v>
+        <v>1.87625275828763</v>
       </c>
       <c r="B3" t="n">
-        <v>12.7406143186487</v>
+        <v>6.80813583779172</v>
       </c>
       <c r="C3" t="n">
-        <v>71.0086860336026</v>
+        <v>37.9445423971633</v>
       </c>
       <c r="D3" t="n">
-        <v>111.700553867338</v>
+        <v>59.6888442633641</v>
       </c>
       <c r="E3" t="n">
-        <v>49.7500058477755</v>
+        <v>26.5846519854871</v>
       </c>
       <c r="F3" t="n">
-        <v>37.3907996438191</v>
+        <v>19.9803272190861</v>
       </c>
       <c r="G3" t="n">
-        <v>32.0508393320061</v>
+        <v>17.1268403885472</v>
       </c>
       <c r="H3" t="n">
-        <v>29.0584442067791</v>
+        <v>15.5278097622868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.10206794932767</v>
+        <v>2.25787202765912</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6305636805409</v>
+        <v>7.50257402746432</v>
       </c>
       <c r="C4" t="n">
-        <v>72.8859353375703</v>
+        <v>40.1180859608734</v>
       </c>
       <c r="D4" t="n">
-        <v>112.411818999994</v>
+        <v>61.8740364210607</v>
       </c>
       <c r="E4" t="n">
-        <v>49.5496638500256</v>
+        <v>27.2732683536414</v>
       </c>
       <c r="F4" t="n">
-        <v>37.0217012993326</v>
+        <v>20.3775912083111</v>
       </c>
       <c r="G4" t="n">
-        <v>31.6210029831201</v>
+        <v>17.4049233225925</v>
       </c>
       <c r="H4" t="n">
-        <v>28.6022696503277</v>
+        <v>15.743343447449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.01175012178683</v>
+        <v>1.40041195792893</v>
       </c>
       <c r="B5" t="n">
-        <v>13.3896742461533</v>
+        <v>4.67403486205526</v>
       </c>
       <c r="C5" t="n">
-        <v>82.7726305175481</v>
+        <v>28.8940681864748</v>
       </c>
       <c r="D5" t="n">
-        <v>136.192606730332</v>
+        <v>47.5417833256572</v>
       </c>
       <c r="E5" t="n">
-        <v>61.8049175725383</v>
+        <v>21.5747100392294</v>
       </c>
       <c r="F5" t="n">
-        <v>46.8603809656661</v>
+        <v>16.3579076126992</v>
       </c>
       <c r="G5" t="n">
-        <v>40.3539466902217</v>
+        <v>14.0866573886816</v>
       </c>
       <c r="H5" t="n">
-        <v>36.6857408001885</v>
+        <v>12.8061690141316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.01554132936955</v>
+        <v>1.84178087144483</v>
       </c>
       <c r="B6" t="n">
-        <v>15.7157329795544</v>
+        <v>5.77104932083499</v>
       </c>
       <c r="C6" t="n">
-        <v>90.5635308430434</v>
+        <v>33.2562664333956</v>
       </c>
       <c r="D6" t="n">
-        <v>144.534265323353</v>
+        <v>53.0751174518472</v>
       </c>
       <c r="E6" t="n">
-        <v>64.6524523532704</v>
+        <v>23.7413356239294</v>
       </c>
       <c r="F6" t="n">
-        <v>48.6581008575471</v>
+        <v>17.8679734678865</v>
       </c>
       <c r="G6" t="n">
-        <v>41.7303871987764</v>
+        <v>15.3240146682937</v>
       </c>
       <c r="H6" t="n">
-        <v>37.843300411235</v>
+        <v>13.8966189754265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.76222009289159</v>
+        <v>2.15041865969077</v>
       </c>
       <c r="B7" t="n">
-        <v>16.9854364121754</v>
+        <v>6.33884142134594</v>
       </c>
       <c r="C7" t="n">
-        <v>93.6715958024575</v>
+        <v>34.9575587619621</v>
       </c>
       <c r="D7" t="n">
-        <v>146.733692369142</v>
+        <v>54.7599475530593</v>
       </c>
       <c r="E7" t="n">
-        <v>65.0816106575873</v>
+        <v>24.2879840937444</v>
       </c>
       <c r="F7" t="n">
-        <v>48.7751528158363</v>
+        <v>18.2025325401635</v>
       </c>
       <c r="G7" t="n">
-        <v>41.7336941916236</v>
+        <v>15.574711357903</v>
       </c>
       <c r="H7" t="n">
-        <v>37.7924642128652</v>
+        <v>14.1038729741159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.733911987837223</v>
+        <v>1.18956297978468</v>
       </c>
       <c r="B8" t="n">
-        <v>5.39616851847802</v>
+        <v>8.74639249479697</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9953459687768</v>
+        <v>46.9971750320502</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0253860997245</v>
+        <v>72.9795034586946</v>
       </c>
       <c r="E8" t="n">
-        <v>20.1455964210304</v>
+        <v>32.6530375648472</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2570600555136</v>
+        <v>24.7294418447571</v>
       </c>
       <c r="G8" t="n">
-        <v>13.1686193467367</v>
+        <v>21.3443877867665</v>
       </c>
       <c r="H8" t="n">
-        <v>12.0053196626977</v>
+        <v>19.4588507449122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.30906474785289</v>
+        <v>1.76818191604253</v>
       </c>
       <c r="B9" t="n">
-        <v>7.241229829367</v>
+        <v>9.78088490672072</v>
       </c>
       <c r="C9" t="n">
-        <v>37.396501034878</v>
+        <v>50.512258436103</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7584233024653</v>
+        <v>76.6648233642485</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0015948064804</v>
+        <v>33.7701919492904</v>
       </c>
       <c r="F9" t="n">
-        <v>18.7238255492718</v>
+        <v>25.2906739637282</v>
       </c>
       <c r="G9" t="n">
-        <v>16.0285119068162</v>
+        <v>21.6500558442124</v>
       </c>
       <c r="H9" t="n">
-        <v>14.5230289388962</v>
+        <v>19.6165676128988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.62598114834008</v>
+        <v>2.16756990057727</v>
       </c>
       <c r="B10" t="n">
-        <v>7.57278406506366</v>
+        <v>10.0951593564048</v>
       </c>
       <c r="C10" t="n">
-        <v>37.6624679200986</v>
+        <v>50.2072437484302</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8307093188055</v>
+        <v>74.4270406645641</v>
       </c>
       <c r="E10" t="n">
-        <v>24.2077549184735</v>
+        <v>32.2709774190197</v>
       </c>
       <c r="F10" t="n">
-        <v>17.939145145784</v>
+        <v>23.9143923038617</v>
       </c>
       <c r="G10" t="n">
-        <v>15.2485487646588</v>
+        <v>20.3276005773508</v>
       </c>
       <c r="H10" t="n">
-        <v>13.7499387836959</v>
+        <v>18.3298271771141</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>1.43122353436101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.80899724618013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34.3771804524743</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.6222369297168</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.1409881127615</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.055824409779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.4205114090257</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.939729715852</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>1.87625275828763</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.80813583779172</v>
+      </c>
+      <c r="C3" t="n">
+        <v>37.9445423971633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.6888442633641</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.5846519854871</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.9803272190861</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.1268403885472</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.5278097622868</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>2.25787202765912</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.50257402746432</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40.1180859608734</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.8740364210607</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.2732683536414</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.3775912083111</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.4049233225925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.743343447449</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>1.40041195792893</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.67403486205526</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.8940681864748</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.5417833256572</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.5747100392294</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.3579076126992</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.0866573886816</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.8061690141316</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>1.84178087144483</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.77104932083499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.2562664333956</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.0751174518472</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.7413356239294</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.8679734678865</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.3240146682937</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.8966189754265</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>2.15041865969077</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.33884142134594</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34.9575587619621</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.7599475530593</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24.2879840937444</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.2025325401635</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.574711357903</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.1038729741159</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>1.18956297978468</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.74639249479697</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46.9971750320502</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.9795034586946</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.6530375648472</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.7294418447571</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.3443877867665</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19.4588507449122</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>1.76818191604253</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.78088490672072</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50.512258436103</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76.6648233642485</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.7701919492904</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.2906739637282</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.6500558442124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19.6165676128988</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>2.16756990057727</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10.0951593564048</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.2072437484302</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74.4270406645641</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.2709774190197</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.9143923038617</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20.3276005773508</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.3298271771141</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.44430867224269</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.9208698047376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.7109129286015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.9941870244221</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.9369234067336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.5444039615743</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.0436965129009</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.5147501621558</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.51118328529077</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.7406143186487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.0086860336026</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111.700553867338</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49.7500058477755</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.3907996438191</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.0508393320061</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.0584442067791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.10206794932767</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.6305636805409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72.8859353375703</v>
+      </c>
+      <c r="D4" t="n">
+        <v>112.411818999994</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49.5496638500256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.0217012993326</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.6210029831201</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28.6022696503277</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.01175012178683</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.3896742461533</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82.7726305175481</v>
+      </c>
+      <c r="D5" t="n">
+        <v>136.192606730332</v>
+      </c>
+      <c r="E5" t="n">
+        <v>61.8049175725383</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46.8603809656661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40.3539466902217</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36.6857408001885</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.01554132936955</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.7157329795544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>90.5635308430434</v>
+      </c>
+      <c r="D6" t="n">
+        <v>144.534265323353</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64.6524523532704</v>
+      </c>
+      <c r="F6" t="n">
+        <v>48.6581008575471</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41.7303871987764</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.843300411235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.76222009289159</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.9854364121754</v>
+      </c>
+      <c r="C7" t="n">
+        <v>93.6715958024575</v>
+      </c>
+      <c r="D7" t="n">
+        <v>146.733692369142</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65.0816106575873</v>
+      </c>
+      <c r="F7" t="n">
+        <v>48.7751528158363</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41.7336941916236</v>
+      </c>
+      <c r="H7" t="n">
+        <v>37.7924642128652</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.733911987837223</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.39616851847802</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.9953459687768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.0253860997245</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.1455964210304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.2570600555136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.1686193467367</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.0053196626977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.30906474785289</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.241229829367</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37.396501034878</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.7584233024653</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.0015948064804</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.7238255492718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.0285119068162</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.5230289388962</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.62598114834008</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.57278406506366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37.6624679200986</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.8307093188055</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.2077549184735</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.939145145784</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.2485487646588</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.7499387836959</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_13.xlsx
@@ -504,7 +504,7 @@
         <v>0.319393847399312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00505291824197973</v>
+        <v>1.39662625952499</v>
       </c>
       <c r="G2" t="n">
         <v>0.00505291824197973</v>
@@ -557,7 +557,7 @@
         <v>0.317875035495517</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00504475391927694</v>
+        <v>1.36435534259372</v>
       </c>
       <c r="G3" t="n">
         <v>0.00504475391927694</v>
@@ -610,7 +610,7 @@
         <v>0.317091368227732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00502775748951875</v>
+        <v>1.34379133717314</v>
       </c>
       <c r="G4" t="n">
         <v>0.00502775748951875</v>
@@ -663,7 +663,7 @@
         <v>0.317177522349936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00495762189575502</v>
+        <v>1.33261491840485</v>
       </c>
       <c r="G5" t="n">
         <v>0.00495762189575502</v>
@@ -716,7 +716,7 @@
         <v>0.316055143806997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00493315073890756</v>
+        <v>1.3301080051315</v>
       </c>
       <c r="G6" t="n">
         <v>0.00493315073890756</v>
@@ -769,7 +769,7 @@
         <v>0.315873124771314</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00492560632131516</v>
+        <v>1.32806501712756</v>
       </c>
       <c r="G7" t="n">
         <v>0.00492560632131516</v>
@@ -822,7 +822,7 @@
         <v>0.33300234749619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00459021231962261</v>
+        <v>1.30952704654647</v>
       </c>
       <c r="G8" t="n">
         <v>0.00459021231962261</v>
@@ -875,7 +875,7 @@
         <v>0.333874223515898</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00459021125695665</v>
+        <v>1.30461301824867</v>
       </c>
       <c r="G9" t="n">
         <v>0.00459021125695665</v>
@@ -928,7 +928,7 @@
         <v>0.334191344982169</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0045919053343328</v>
+        <v>1.30066322224658</v>
       </c>
       <c r="G10" t="n">
         <v>0.0045919053343328</v>
@@ -981,7 +981,7 @@
         <v>0.329628510347761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00446216694466109</v>
+        <v>1.2569752825067</v>
       </c>
       <c r="G11" t="n">
         <v>0.00446216694466109</v>
@@ -1695,7 +1695,7 @@
         <v>-0.010234662948449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000590751297318634</v>
+        <v>0.139650977018291</v>
       </c>
       <c r="F2" t="n">
         <v>0.000590751297318634</v>
@@ -1745,7 +1745,7 @@
         <v>-0.0117534748522435</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000582586974615843</v>
+        <v>0.107380060087022</v>
       </c>
       <c r="F3" t="n">
         <v>0.000582586974615843</v>
@@ -1795,7 +1795,7 @@
         <v>-0.0125371421200291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000565590544857655</v>
+        <v>0.0868160546664398</v>
       </c>
       <c r="F4" t="n">
         <v>0.000565590544857655</v>
@@ -1845,7 +1845,7 @@
         <v>-0.0124509879978247</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000495454951093929</v>
+        <v>0.075639635898151</v>
       </c>
       <c r="F5" t="n">
         <v>0.000495454951093929</v>
@@ -1895,7 +1895,7 @@
         <v>-0.0135733665407642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000470983794246472</v>
+        <v>0.0731327226248009</v>
       </c>
       <c r="F6" t="n">
         <v>0.000470983794246472</v>
@@ -1945,7 +1945,7 @@
         <v>-0.0137553855764473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000463439376654064</v>
+        <v>0.071089734620859</v>
       </c>
       <c r="F7" t="n">
         <v>0.000463439376654064</v>
@@ -1995,7 +1995,7 @@
         <v>0.00337383714842865</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00012804537496152</v>
+        <v>0.0525517640397701</v>
       </c>
       <c r="F8" t="n">
         <v>0.00012804537496152</v>
@@ -2045,7 +2045,7 @@
         <v>0.00424571316813677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00012804431229556</v>
+        <v>0.0476377357419751</v>
       </c>
       <c r="F9" t="n">
         <v>0.00012804431229556</v>
@@ -2095,7 +2095,7 @@
         <v>0.00456283463440815</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000129738389671705</v>
+        <v>0.0436879397398828</v>
       </c>
       <c r="F10" t="n">
         <v>0.000129738389671705</v>
@@ -2259,7 +2259,7 @@
         <v>-0.0310490829135239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.132391124008809</v>
+        <v>0.111100813963338</v>
       </c>
       <c r="F2" t="n">
         <v>0.132391124008809</v>
@@ -2309,7 +2309,7 @@
         <v>-0.0356567301773852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.130561447350799</v>
+        <v>0.0854273441820441</v>
       </c>
       <c r="F3" t="n">
         <v>0.130561447350799</v>
@@ -2359,7 +2359,7 @@
         <v>-0.0380341558040665</v>
       </c>
       <c r="E4" t="n">
-        <v>0.126752439313006</v>
+        <v>0.069067431853798</v>
       </c>
       <c r="F4" t="n">
         <v>0.126752439313006</v>
@@ -2409,7 +2409,7 @@
         <v>-0.0377727884784263</v>
       </c>
       <c r="E5" t="n">
-        <v>0.111034606557411</v>
+        <v>0.0601759135209948</v>
       </c>
       <c r="F5" t="n">
         <v>0.111034606557411</v>
@@ -2459,7 +2459,7 @@
         <v>-0.0411777686537012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.105550464625712</v>
+        <v>0.0581815121129171</v>
       </c>
       <c r="F6" t="n">
         <v>0.105550464625712</v>
@@ -2509,7 +2509,7 @@
         <v>-0.0417299631088806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.103859712646691</v>
+        <v>0.0565561913668578</v>
       </c>
       <c r="F7" t="n">
         <v>0.103859712646691</v>
@@ -2559,7 +2559,7 @@
         <v>0.0102352710476082</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0286957831362012</v>
+        <v>0.0418081125151243</v>
       </c>
       <c r="F8" t="n">
         <v>0.0286957831362012</v>
@@ -2609,7 +2609,7 @@
         <v>0.012880297167431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.028695544985999</v>
+        <v>0.0378987052529581</v>
       </c>
       <c r="F9" t="n">
         <v>0.028695544985999</v>
@@ -2659,7 +2659,7 @@
         <v>0.0138423543206087</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0290751985034837</v>
+        <v>0.0347564032068785</v>
       </c>
       <c r="F10" t="n">
         <v>0.0290751985034837</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.43122353436101</v>
+        <v>1.70548968691121</v>
       </c>
       <c r="B2" t="n">
-        <v>5.80899724618013</v>
+        <v>6.9221785813346</v>
       </c>
       <c r="C2" t="n">
-        <v>34.3771804524743</v>
+        <v>40.9648984377248</v>
       </c>
       <c r="D2" t="n">
-        <v>55.6222369297168</v>
+        <v>66.281156764877</v>
       </c>
       <c r="E2" t="n">
-        <v>25.1409881127615</v>
+        <v>29.9587694833535</v>
       </c>
       <c r="F2" t="n">
-        <v>19.055824409779</v>
+        <v>22.7075025153068</v>
       </c>
       <c r="G2" t="n">
-        <v>16.4205114090257</v>
+        <v>19.5671830357404</v>
       </c>
       <c r="H2" t="n">
-        <v>14.939729715852</v>
+        <v>17.8026383328039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.87625275828763</v>
+        <v>2.86753940513405</v>
       </c>
       <c r="B3" t="n">
-        <v>6.80813583779172</v>
+        <v>10.4051001146511</v>
       </c>
       <c r="C3" t="n">
-        <v>37.9445423971633</v>
+        <v>57.991904370576</v>
       </c>
       <c r="D3" t="n">
-        <v>59.6888442633641</v>
+        <v>91.2244430906615</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5846519854871</v>
+        <v>40.6302065664828</v>
       </c>
       <c r="F3" t="n">
-        <v>19.9803272190861</v>
+        <v>30.5365976812698</v>
       </c>
       <c r="G3" t="n">
-        <v>17.1268403885472</v>
+        <v>26.1755189873367</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5278097622868</v>
+        <v>23.7316673737606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.25787202765912</v>
+        <v>4.14364309604278</v>
       </c>
       <c r="B4" t="n">
-        <v>7.50257402746432</v>
+        <v>13.7687117297269</v>
       </c>
       <c r="C4" t="n">
-        <v>40.1180859608734</v>
+        <v>73.6246465175313</v>
       </c>
       <c r="D4" t="n">
-        <v>61.8740364210607</v>
+        <v>113.551131640635</v>
       </c>
       <c r="E4" t="n">
-        <v>27.2732683536414</v>
+        <v>50.0518580042173</v>
       </c>
       <c r="F4" t="n">
-        <v>20.3775912083111</v>
+        <v>37.3969224517309</v>
       </c>
       <c r="G4" t="n">
-        <v>17.4049233225925</v>
+        <v>31.9414871522128</v>
       </c>
       <c r="H4" t="n">
-        <v>15.743343447449</v>
+        <v>28.892158450754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.40041195792893</v>
+        <v>2.58399385516069</v>
       </c>
       <c r="B5" t="n">
-        <v>4.67403486205526</v>
+        <v>8.62437463060467</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8940681864748</v>
+        <v>53.3143795450468</v>
       </c>
       <c r="D5" t="n">
-        <v>47.5417833256572</v>
+        <v>87.7225271330581</v>
       </c>
       <c r="E5" t="n">
-        <v>21.5747100392294</v>
+        <v>39.8089418278674</v>
       </c>
       <c r="F5" t="n">
-        <v>16.3579076126992</v>
+        <v>30.183070428085</v>
       </c>
       <c r="G5" t="n">
-        <v>14.0866573886816</v>
+        <v>25.9922345892698</v>
       </c>
       <c r="H5" t="n">
-        <v>12.8061690141316</v>
+        <v>23.629519766172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.84178087144483</v>
+        <v>3.34128178625647</v>
       </c>
       <c r="B6" t="n">
-        <v>5.77104932083499</v>
+        <v>10.469596183919</v>
       </c>
       <c r="C6" t="n">
-        <v>33.2562664333956</v>
+        <v>60.3321269297513</v>
       </c>
       <c r="D6" t="n">
-        <v>53.0751174518472</v>
+        <v>96.28665711256</v>
       </c>
       <c r="E6" t="n">
-        <v>23.7413356239294</v>
+        <v>43.0705376147206</v>
       </c>
       <c r="F6" t="n">
-        <v>17.8679734678865</v>
+        <v>32.4153297665257</v>
       </c>
       <c r="G6" t="n">
-        <v>15.3240146682937</v>
+        <v>27.8001861661916</v>
       </c>
       <c r="H6" t="n">
-        <v>13.8966189754265</v>
+        <v>25.2106646306483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.15041865969077</v>
+        <v>3.9490258920873</v>
       </c>
       <c r="B7" t="n">
-        <v>6.33884142134594</v>
+        <v>11.6406397358597</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9575587619621</v>
+        <v>64.1960132056345</v>
       </c>
       <c r="D7" t="n">
-        <v>54.7599475530593</v>
+        <v>100.561092958276</v>
       </c>
       <c r="E7" t="n">
-        <v>24.2879840937444</v>
+        <v>44.6024208451547</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2025325401635</v>
+        <v>33.4271059166702</v>
       </c>
       <c r="G7" t="n">
-        <v>15.574711357903</v>
+        <v>28.6013786836233</v>
       </c>
       <c r="H7" t="n">
-        <v>14.1038729741159</v>
+        <v>25.9003330828161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.18956297978468</v>
+        <v>0.816478889890232</v>
       </c>
       <c r="B8" t="n">
-        <v>8.74639249479697</v>
+        <v>6.0032507366602</v>
       </c>
       <c r="C8" t="n">
-        <v>46.9971750320502</v>
+        <v>32.2573936397137</v>
       </c>
       <c r="D8" t="n">
-        <v>72.9795034586946</v>
+        <v>50.0908526755606</v>
       </c>
       <c r="E8" t="n">
-        <v>32.6530375648472</v>
+        <v>22.4120255216048</v>
       </c>
       <c r="F8" t="n">
-        <v>24.7294418447571</v>
+        <v>16.9735168025042</v>
       </c>
       <c r="G8" t="n">
-        <v>21.3443877867665</v>
+        <v>14.6501213821232</v>
       </c>
       <c r="H8" t="n">
-        <v>19.4588507449122</v>
+        <v>13.3559476250861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.76818191604253</v>
+        <v>1.33880414585583</v>
       </c>
       <c r="B9" t="n">
-        <v>9.78088490672072</v>
+        <v>7.40573644852356</v>
       </c>
       <c r="C9" t="n">
-        <v>50.512258436103</v>
+        <v>38.2460766040145</v>
       </c>
       <c r="D9" t="n">
-        <v>76.6648233642485</v>
+        <v>58.0478639839747</v>
       </c>
       <c r="E9" t="n">
-        <v>33.7701919492904</v>
+        <v>25.5695822798866</v>
       </c>
       <c r="F9" t="n">
-        <v>25.2906739637282</v>
+        <v>19.1491943486843</v>
       </c>
       <c r="G9" t="n">
-        <v>21.6500558442124</v>
+        <v>16.3926484369409</v>
       </c>
       <c r="H9" t="n">
-        <v>19.6165676128988</v>
+        <v>14.8529638321323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.16756990057727</v>
+        <v>1.81326372450956</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0951593564048</v>
+        <v>8.44502696279231</v>
       </c>
       <c r="C10" t="n">
-        <v>50.2072437484302</v>
+        <v>42.0004788645535</v>
       </c>
       <c r="D10" t="n">
-        <v>74.4270406645641</v>
+        <v>62.2613614092493</v>
       </c>
       <c r="E10" t="n">
-        <v>32.2709774190197</v>
+        <v>26.9960349111655</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9143923038617</v>
+        <v>20.0053986940557</v>
       </c>
       <c r="G10" t="n">
-        <v>20.3276005773508</v>
+        <v>17.0048960005457</v>
       </c>
       <c r="H10" t="n">
-        <v>18.3298271771141</v>
+        <v>15.3336742164296</v>
       </c>
     </row>
     <row r="11">
